--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="94">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,262 +46,253 @@
     <t>disappointed</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>beautiful</t>
   </si>
   <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>enjoy</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>loved</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>loved</t>
+    <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>family</t>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>husband</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>wife</t>
   </si>
   <si>
-    <t>christmas</t>
+    <t>rice</t>
   </si>
   <si>
     <t>son</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>kids</t>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cooke</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>rice</t>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>comfortable</t>
   </si>
   <si>
     <t>pie</t>
   </si>
   <si>
-    <t>cheese</t>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>pop</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
     <t>ze</t>
   </si>
   <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
     <t>popcorn</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
     <t>cooking</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>w</t>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>kitchen</t>
   </si>
   <si>
     <t>cook</t>
   </si>
   <si>
-    <t>easy</t>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>highly</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
     <t>works</t>
   </si>
   <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>many</t>
+    <t>big</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
+    <t>cup</t>
+  </si>
+  <si>
     <t>every</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>big</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
   <si>
     <t>makes</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
     <t>job</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>really</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>time</t>
   </si>
   <si>
     <t>use</t>
-  </si>
-  <si>
-    <t>product</t>
   </si>
   <si>
     <t>positive</t>
@@ -662,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q87"/>
+  <dimension ref="A1:Q82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -670,10 +661,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -731,13 +722,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7931034482758621</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -749,19 +740,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="M3">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -773,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -781,13 +772,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.2558139534883721</v>
+        <v>0.3255813953488372</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -799,19 +790,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9655172413793104</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L4">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="M4">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -823,21 +814,45 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.2448979591836735</v>
+      </c>
+      <c r="C5">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>0.04</v>
+      </c>
+      <c r="F5">
+        <v>0.96</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>74</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.875</v>
+        <v>0.9140625</v>
       </c>
       <c r="L5">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="M5">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -849,21 +864,45 @@
         <v>0</v>
       </c>
       <c r="Q5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.1189189189189189</v>
+      </c>
+      <c r="C6">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>163</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="J6" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="K6">
-        <v>0.8478260869565217</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -875,21 +914,21 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8405797101449275</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="L7">
-        <v>58</v>
+        <v>551</v>
       </c>
       <c r="M7">
-        <v>58</v>
+        <v>551</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -901,21 +940,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8374613003095975</v>
+        <v>0.8405797101449275</v>
       </c>
       <c r="L8">
-        <v>541</v>
+        <v>58</v>
       </c>
       <c r="M8">
-        <v>541</v>
+        <v>58</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -927,21 +966,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>105</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8181818181818182</v>
+        <v>0.75</v>
       </c>
       <c r="L9">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -953,21 +992,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.7402597402597403</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L10">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="M10">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -979,21 +1018,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7229437229437229</v>
+        <v>0.7316017316017316</v>
       </c>
       <c r="L11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1005,21 +1044,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7142857142857143</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L12">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="M12">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1031,21 +1070,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.684931506849315</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L13">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M13">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1057,21 +1096,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.6745762711864407</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="L14">
-        <v>199</v>
+        <v>44</v>
       </c>
       <c r="M14">
-        <v>199</v>
+        <v>44</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1083,21 +1122,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.6619718309859155</v>
+        <v>0.6644067796610169</v>
       </c>
       <c r="L15">
-        <v>47</v>
+        <v>196</v>
       </c>
       <c r="M15">
-        <v>47</v>
+        <v>196</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1109,73 +1148,73 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16">
+        <v>0.6619718309859155</v>
+      </c>
+      <c r="L16">
+        <v>47</v>
+      </c>
+      <c r="M16">
+        <v>47</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>24</v>
-      </c>
-      <c r="K16">
-        <v>0.6436597110754414</v>
-      </c>
-      <c r="L16">
-        <v>802</v>
-      </c>
-      <c r="M16">
-        <v>802</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>444</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17">
+        <v>0.6575342465753424</v>
+      </c>
+      <c r="L17">
+        <v>48</v>
+      </c>
+      <c r="M17">
+        <v>48</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>25</v>
-      </c>
-      <c r="K17">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="L17">
-        <v>28</v>
-      </c>
-      <c r="M17">
-        <v>28</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>17</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6153846153846154</v>
+        <v>0.6514285714285715</v>
       </c>
       <c r="L18">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="M18">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1187,21 +1226,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6140350877192983</v>
+        <v>0.6388443017656501</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>796</v>
       </c>
       <c r="M19">
-        <v>35</v>
+        <v>796</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1213,21 +1252,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>22</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6114285714285714</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="L20">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1239,15 +1278,15 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>68</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.6111111111111112</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L21">
         <v>44</v>
@@ -1265,21 +1304,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.6029411764705882</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L22">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M22">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1291,21 +1330,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5897435897435898</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L23">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1317,21 +1356,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5857142857142857</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L24">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M24">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1343,21 +1382,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5714285714285714</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="L25">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1369,21 +1408,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.5625</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="M26">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1395,21 +1434,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.5396825396825397</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L27">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M27">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1421,21 +1460,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>0.5299145299145299</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="L28">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="M28">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1447,21 +1486,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>0.5294117647058824</v>
+        <v>0.5389221556886228</v>
       </c>
       <c r="L29">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="M29">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1473,21 +1512,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>24</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K30">
-        <v>0.5230769230769231</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L30">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="M30">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1499,21 +1538,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K31">
-        <v>0.5180722891566265</v>
+        <v>0.53125</v>
       </c>
       <c r="L31">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="M31">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1525,21 +1564,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K32">
-        <v>0.5131578947368421</v>
+        <v>0.5288461538461539</v>
       </c>
       <c r="L32">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="M32">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1551,47 +1590,47 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="L33">
+        <v>42</v>
+      </c>
+      <c r="M33">
+        <v>42</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>41</v>
-      </c>
-      <c r="K33">
-        <v>0.5089820359281437</v>
-      </c>
-      <c r="L33">
-        <v>85</v>
-      </c>
-      <c r="M33">
-        <v>85</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>82</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K34">
-        <v>0.5</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="L34">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M34">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1603,21 +1642,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K35">
-        <v>0.4903846153846154</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L35">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="M35">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1629,21 +1668,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K36">
-        <v>0.49</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="L36">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="M36">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1655,21 +1694,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K37">
-        <v>0.4754098360655737</v>
+        <v>0.4586466165413534</v>
       </c>
       <c r="L37">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="M37">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1681,21 +1720,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>32</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K38">
-        <v>0.4586466165413534</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="L38">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="M38">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1707,21 +1746,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>72</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K39">
-        <v>0.4567901234567901</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="L39">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="M39">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1733,21 +1772,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>44</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K40">
-        <v>0.4444444444444444</v>
+        <v>0.44</v>
       </c>
       <c r="L40">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="M40">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1759,21 +1798,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K41">
-        <v>0.4216867469879518</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L41">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="M41">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1785,21 +1824,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>96</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K42">
-        <v>0.4181818181818182</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L42">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M42">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1811,21 +1850,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K43">
-        <v>0.3947368421052632</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="L43">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M43">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1837,21 +1876,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K44">
-        <v>0.3693693693693694</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L44">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="M44">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1863,21 +1902,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K45">
-        <v>0.3618677042801556</v>
+        <v>0.3651960784313725</v>
       </c>
       <c r="L45">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="M45">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1889,21 +1928,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>164</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K46">
-        <v>0.3548387096774194</v>
+        <v>0.3383458646616541</v>
       </c>
       <c r="L46">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="M46">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1915,15 +1954,15 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>40</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K47">
-        <v>0.3533834586466165</v>
+        <v>0.3381294964028777</v>
       </c>
       <c r="L47">
         <v>47</v>
@@ -1941,21 +1980,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K48">
-        <v>0.3529411764705883</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L48">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="M48">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1967,21 +2006,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>264</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K49">
-        <v>0.3472222222222222</v>
+        <v>0.3073929961089494</v>
       </c>
       <c r="L49">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="M49">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1993,21 +2032,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>47</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K50">
-        <v>0.3381294964028777</v>
+        <v>0.3054794520547945</v>
       </c>
       <c r="L50">
-        <v>47</v>
+        <v>223</v>
       </c>
       <c r="M50">
-        <v>47</v>
+        <v>223</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2019,21 +2058,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>92</v>
+        <v>507</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K51">
-        <v>0.3176470588235294</v>
+        <v>0.2870813397129187</v>
       </c>
       <c r="L51">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="M51">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2045,21 +2084,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>58</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K52">
-        <v>0.2962962962962963</v>
+        <v>0.2685185185185185</v>
       </c>
       <c r="L52">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M52">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2071,21 +2110,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K53">
-        <v>0.2931506849315069</v>
+        <v>0.2649006622516556</v>
       </c>
       <c r="L53">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="M53">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2097,21 +2136,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>516</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K54">
-        <v>0.2871287128712871</v>
+        <v>0.2615715823466093</v>
       </c>
       <c r="L54">
-        <v>29</v>
+        <v>243</v>
       </c>
       <c r="M54">
-        <v>29</v>
+        <v>243</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2123,21 +2162,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>72</v>
+        <v>686</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K55">
-        <v>0.277511961722488</v>
+        <v>0.2376237623762376</v>
       </c>
       <c r="L55">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="M55">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2149,21 +2188,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>151</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K56">
-        <v>0.2411194833153929</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L56">
-        <v>224</v>
+        <v>24</v>
       </c>
       <c r="M56">
-        <v>224</v>
+        <v>24</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2175,21 +2214,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>705</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K57">
-        <v>0.2348993288590604</v>
+        <v>0.2252252252252252</v>
       </c>
       <c r="L57">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M57">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2201,21 +2240,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>114</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K58">
-        <v>0.2317880794701987</v>
+        <v>0.2147651006711409</v>
       </c>
       <c r="L58">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M58">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2227,21 +2266,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K59">
-        <v>0.2201834862385321</v>
+        <v>0.213166144200627</v>
       </c>
       <c r="L59">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="M59">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2253,73 +2292,73 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>85</v>
+        <v>251</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K60">
-        <v>0.2162162162162162</v>
+        <v>0.206145966709347</v>
       </c>
       <c r="L60">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="M60">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>87</v>
+        <v>620</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K61">
-        <v>0.2142857142857143</v>
+        <v>0.2049180327868853</v>
       </c>
       <c r="L61">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M61">
         <v>25</v>
       </c>
       <c r="N61">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K62">
-        <v>0.213166144200627</v>
+        <v>0.1973509933774834</v>
       </c>
       <c r="L62">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="M62">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2331,21 +2370,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>251</v>
+        <v>606</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K63">
-        <v>0.2105960264900662</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="L63">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="M63">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2357,47 +2396,47 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>596</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K64">
-        <v>0.2095238095238095</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="L64">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="M64">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>83</v>
+        <v>310</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K65">
-        <v>0.2</v>
+        <v>0.147766323024055</v>
       </c>
       <c r="L65">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="M65">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2409,21 +2448,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>104</v>
+        <v>248</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K66">
-        <v>0.1994884910485933</v>
+        <v>0.1411192214111922</v>
       </c>
       <c r="L66">
-        <v>156</v>
+        <v>58</v>
       </c>
       <c r="M66">
-        <v>156</v>
+        <v>58</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2435,21 +2474,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>626</v>
+        <v>353</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K67">
-        <v>0.1965811965811966</v>
+        <v>0.141025641025641</v>
       </c>
       <c r="L67">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M67">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2461,21 +2500,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>94</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K68">
-        <v>0.1751824817518248</v>
+        <v>0.1402439024390244</v>
       </c>
       <c r="L68">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="M68">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2487,21 +2526,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>339</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K69">
-        <v>0.1707317073170732</v>
+        <v>0.1337719298245614</v>
       </c>
       <c r="L69">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="M69">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2513,47 +2552,47 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>136</v>
+        <v>395</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K70">
-        <v>0.1540540540540541</v>
+        <v>0.1302521008403361</v>
       </c>
       <c r="L70">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="M70">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="N70">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>313</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K71">
-        <v>0.1454545454545454</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="L71">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="M71">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2565,47 +2604,47 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>141</v>
+        <v>384</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K72">
-        <v>0.1439114391143911</v>
+        <v>0.1172248803827751</v>
       </c>
       <c r="L72">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M72">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>232</v>
+        <v>369</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K73">
-        <v>0.1374570446735395</v>
+        <v>0.1148148148148148</v>
       </c>
       <c r="L73">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M73">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2617,21 +2656,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K74">
-        <v>0.125</v>
+        <v>0.1107011070110701</v>
       </c>
       <c r="L74">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="M74">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2643,21 +2682,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>399</v>
+        <v>241</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K75">
-        <v>0.1231527093596059</v>
+        <v>0.09274193548387097</v>
       </c>
       <c r="L75">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M75">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2669,47 +2708,47 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>178</v>
+        <v>225</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K76">
-        <v>0.1218487394957983</v>
+        <v>0.08321377331420372</v>
       </c>
       <c r="L76">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="M76">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <v>209</v>
+        <v>639</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K77">
-        <v>0.1181818181818182</v>
+        <v>0.07377049180327869</v>
       </c>
       <c r="L77">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="M77">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2721,47 +2760,47 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>388</v>
+        <v>339</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K78">
-        <v>0.1121718377088305</v>
+        <v>0.06909430438842204</v>
       </c>
       <c r="L78">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="M78">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>372</v>
+        <v>997</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K79">
-        <v>0.1111111111111111</v>
+        <v>0.06345177664974619</v>
       </c>
       <c r="L79">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M79">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -2773,215 +2812,85 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>240</v>
+        <v>369</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K80">
-        <v>0.1048387096774194</v>
+        <v>0.05950095969289827</v>
       </c>
       <c r="L80">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M80">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
-        <v>222</v>
+        <v>490</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K81">
-        <v>0.0975609756097561</v>
+        <v>0.04612546125461255</v>
       </c>
       <c r="L81">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="M81">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="N81">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O81">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81">
-        <v>629</v>
+        <v>517</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K82">
-        <v>0.07749766573295985</v>
+        <v>0.04152249134948097</v>
       </c>
       <c r="L82">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="M82">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="N82">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O82">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="83" spans="10:17">
-      <c r="J83" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K83">
-        <v>0.06830601092896176</v>
-      </c>
-      <c r="L83">
-        <v>25</v>
-      </c>
-      <c r="M83">
-        <v>25</v>
-      </c>
-      <c r="N83">
-        <v>1</v>
-      </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
-      <c r="P83" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="84" spans="10:17">
-      <c r="J84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K84">
-        <v>0.06598984771573604</v>
-      </c>
-      <c r="L84">
-        <v>26</v>
-      </c>
-      <c r="M84">
-        <v>26</v>
-      </c>
-      <c r="N84">
-        <v>1</v>
-      </c>
-      <c r="O84">
-        <v>0</v>
-      </c>
-      <c r="P84" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q84">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="85" spans="10:17">
-      <c r="J85" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K85">
-        <v>0.04797047970479705</v>
-      </c>
-      <c r="L85">
-        <v>26</v>
-      </c>
-      <c r="M85">
-        <v>26</v>
-      </c>
-      <c r="N85">
-        <v>1</v>
-      </c>
-      <c r="O85">
-        <v>0</v>
-      </c>
-      <c r="P85" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q85">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="86" spans="10:17">
-      <c r="J86" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K86">
-        <v>0.03892733564013841</v>
-      </c>
-      <c r="L86">
-        <v>45</v>
-      </c>
-      <c r="M86">
-        <v>46</v>
-      </c>
-      <c r="N86">
-        <v>0.98</v>
-      </c>
-      <c r="O86">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P86" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q86">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="87" spans="10:17">
-      <c r="J87" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K87">
-        <v>0.02883355176933159</v>
-      </c>
-      <c r="L87">
-        <v>22</v>
-      </c>
-      <c r="M87">
-        <v>26</v>
-      </c>
-      <c r="N87">
-        <v>0.85</v>
-      </c>
-      <c r="O87">
-        <v>0.15</v>
-      </c>
-      <c r="P87" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q87">
-        <v>741</v>
+        <v>1108</v>
       </c>
     </row>
   </sheetData>
